--- a/biology/Botanique/Julius_Mac_Leod/Julius_Mac_Leod.xlsx
+++ b/biology/Botanique/Julius_Mac_Leod/Julius_Mac_Leod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Mac Leod, né le 19 février 1857 à Ostende et mort le 3 mars 1919 à Gand, est un botaniste, biologiste, professeur à l’Université de Gand et directeur du Jardin botanique de Gand.
 </t>
@@ -511,7 +523,9 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Aimé Mac Leod, était issu d'une famille d'origine écossaise établie en Flandre au début du XVIIIe siècle.
 Sa mère, Sophie Fredericq, était la demi-sœur des écrivaines Virginie et Rosalie Loveling de Nevele.  Une autre demi-sœur, Pauline Loveling, était la mère de l'écrivain Cyriel Buysse.
@@ -543,9 +557,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mac Leod développa dès 1894 une théorie sur les stratégies de multiplication des végétaux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mac Leod développa dès 1894 une théorie sur les stratégies de multiplication des végétaux.
 Nommé professeur à l'Université de Gand, Julius Mac Leod fut un défenseur de la néerlandisation de l'université. Lors du 23e Congrès néerlandais linguistique et littéraire de 1896, fut fondé le premier comité universitaire flamand. Dans son rapport de 1897, Mac Leod lança un appel pour une néerlandisation progressive de l’université, qui ne devint une réalité qu'en 1930.
 Au début de la Première Guerre mondiale, Mac Leod se réfugia en Angleterre, où il remplit plusieurs missions auprès de l’Université de Manchester. Après la guerre, en 1919, ses biens — en Belgique — furent pillés et détruits, bien qu’il n’ait jamais touché à l’activisme[réf. nécessaire]. Quelques semaines après, il mourut de la grippe espagnole.
 Lors de l'élection du plus grand professeur à l'Université de Gand, en 2006, il fut sélectionné, sans pourtant atteindre la liste des dix premiers.
@@ -577,7 +593,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(nl) Leiddraad bij het Onderwijzen en Aanleeren der Dierkunde : Algemeene Dierkunde, Willemfonds, no 104, 1883.
 (nl) Leiddraad bij het Onderwijzen en Aanleeren der Dierkunde : De Werveldieren, Willemfonds, no 107, 1884.
